--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4002748.028441808</v>
+        <v>4000204.218934726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7152332.853866363</v>
+        <v>7152332.853866365</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>32.55518202532718</v>
+        <v>21.31870353900211</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,7 +716,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.86835121197965</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>105.6780520018976</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>102.0276666135368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.3946743175252</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>130.7054599919087</v>
+        <v>44.275769740903</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>27.97091099520353</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.7079352124039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>65.37331494373132</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646897</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>101.7457945895947</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908941</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592413</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614497</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>20.24979976115202</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901736</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.586959164095</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503843</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>170.5614640466854</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611949</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428377</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581223</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560535</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176373</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206838</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.017717176689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695204</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999816</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701344</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428256</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428259</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151038</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3587892151038</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="D2" t="n">
-        <v>320.3587892151038</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="E2" t="n">
-        <v>320.3587892151038</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="F2" t="n">
-        <v>53.98113264792573</v>
+        <v>159.1024872545642</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991311</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822819</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822819</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822819</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822819</v>
+        <v>166.0479880037676</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822819</v>
+        <v>166.0479880037676</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6220209084487</v>
+        <v>167.9129401811199</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>167.9129401811199</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>167.9129401811199</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>141.1068094710481</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>287.8512331313448</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>478.4519222278685</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.046441637462</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>629.9105956742754</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>629.9105956742754</v>
       </c>
       <c r="W3" t="n">
-        <v>694.6220209084487</v>
+        <v>375.6732389460738</v>
       </c>
       <c r="X3" t="n">
-        <v>694.6220209084487</v>
+        <v>375.6732389460738</v>
       </c>
       <c r="Y3" t="n">
-        <v>694.6220209084487</v>
+        <v>167.9129401811199</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>951.7972709014424</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T4" t="n">
-        <v>951.7972709014424</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U4" t="n">
-        <v>951.7972709014424</v>
+        <v>684.0336785103123</v>
       </c>
       <c r="V4" t="n">
-        <v>697.1127826955556</v>
+        <v>684.0336785103123</v>
       </c>
       <c r="W4" t="n">
-        <v>430.7351261283775</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>202.7455752303602</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044908</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044908</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>566.8162363079208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>788.477863438847</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716689</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716689</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>904.493919049271</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>890.5040702965262</v>
+        <v>217.9199164948176</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>217.9199164948176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.0844409294646</v>
+        <v>1136.202892955285</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1219239890528</v>
+        <v>1136.202892955285</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8562253823023</v>
+        <v>777.9371943485341</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8562253823023</v>
+        <v>777.9371943485341</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9107246330989</v>
+        <v>770.9916935993307</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2449066651701</v>
+        <v>355.2854715909979</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2449066651701</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467193</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607473</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829046008</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995238</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209599</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940614</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550218</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661186</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342807</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342807</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342781</v>
+        <v>2351.81067643908</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868351</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.91869452478</v>
+        <v>2249.0371465506</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.150039254666</v>
+        <v>1896.268491280486</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.684280993586</v>
+        <v>1522.802733019406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.684280993586</v>
+        <v>1522.802733019406</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010759</v>
+        <v>929.5097208011018</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199489</v>
+        <v>755.0566915199748</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586976</v>
+        <v>606.1222818587236</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532421</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801271</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.665598399939</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637202</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572706</v>
+        <v>559.9063389572739</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907518</v>
+        <v>1116.272322425167</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1479.338790899471</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337622</v>
+        <v>1866.423193372043</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325011</v>
+        <v>2198.310003359434</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2445.34536178906</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342807</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342807</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251722</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685371</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.726321751601</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1767.574213519858</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791657</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586124</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1097.72505782117</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.054243487711</v>
+        <v>220.1474381347631</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598041</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474684</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650752</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671649</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685614</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380141</v>
+        <v>76.63468308380257</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676588</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368952</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904082</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101618</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931098</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616508</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477372</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412629</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1336.515802634463</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1113.534501108869</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>824.4161276035106</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477362</v>
+        <v>569.7316393976238</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>569.7316393976238</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>341.7420884996064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>220.1474381347631</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121663</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121663</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121663</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121663</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270463</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138426</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,61 +5258,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429798</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429798</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138426</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703127</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5498,58 +5498,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400735</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121667</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121667</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121667</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121667</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713843</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703131</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,19 +5835,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5972,52 +5972,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>407.902709831002</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.902709831002</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>407.902709831002</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6494,7 +6494,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6503,10 +6503,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6980,7 +6980,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,43 +7406,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7664,34 +7664,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140407</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475095044</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094954</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348513</v>
+        <v>20.98618304348444</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-2.665723506619944e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193998</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>138.494940240505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392193864</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864604</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219413</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194127</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>633835.3123173523</v>
+        <v>633835.3123173524</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>614509.1092426893</v>
+        <v>614509.1092426894</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580785</v>
+        <v>390680.007658085</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606933</v>
+        <v>507909.2320606875</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.466712796727993e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.466712796727993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101748</v>
+        <v>95270.23779101922</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608932</v>
+        <v>138058.0537608914</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321769023</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321769008</v>
+        <v>9947.144321768941</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321769018</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321769105</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768941</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768948</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768843</v>
+        <v>9947.144321768919</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567944</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171531.9802618804</v>
+        <v>-171531.9802618801</v>
       </c>
       <c r="C6" t="n">
-        <v>508556.0003293126</v>
+        <v>508556.0003293127</v>
       </c>
       <c r="D6" t="n">
-        <v>199400.8408696327</v>
+        <v>199400.8408696273</v>
       </c>
       <c r="E6" t="n">
-        <v>188167.6934836367</v>
+        <v>188132.9555582067</v>
       </c>
       <c r="F6" t="n">
-        <v>696076.9255443297</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="G6" t="n">
-        <v>696076.9255443296</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="H6" t="n">
-        <v>696076.9255443299</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="I6" t="n">
-        <v>696076.9255443299</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="J6" t="n">
-        <v>627077.7711252164</v>
+        <v>627043.0331997802</v>
       </c>
       <c r="K6" t="n">
-        <v>696076.9255443303</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="L6" t="n">
-        <v>600806.6877533126</v>
+        <v>600771.9498278752</v>
       </c>
       <c r="M6" t="n">
-        <v>563358.9498488612</v>
+        <v>563324.2119234269</v>
       </c>
       <c r="N6" t="n">
-        <v>696076.9255443303</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="O6" t="n">
-        <v>696076.9255443299</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="P6" t="n">
-        <v>696076.9255443303</v>
+        <v>696042.1876188944</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627877</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900857017</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.833390995909991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933042</v>
+        <v>319.6474457933094</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788907</v>
+        <v>434.2730407788861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841956</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139464</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841956</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139464</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841956</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139464</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>380.2789926203828</v>
+        <v>391.5154711067079</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111.7767292434213</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>146.016931159022</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>102.691497630057</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>269.8639561851523</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543566</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,7 +27667,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.0951271575165</v>
+        <v>188.5248174085223</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>151.8610691867338</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>63.00172017663328</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3927693109190784</v>
+        <v>65.7660842546496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348402</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>149.2995721000909</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164506829</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77644916453238</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590394</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430992</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.9615342899056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949089985</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>-5.09262390227752e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.248137166188553e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.300300334080712e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.833390995909991e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.475638499037249e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885576</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546691</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157563</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972549</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763215</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354961</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359974</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525111</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307926</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983048</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.344166754215</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864763</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140514</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944162</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.300286218150846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436939</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.3963473203515</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.14683309026306</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079435</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502184</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571303</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617192</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.336058015224</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519108</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947609</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463715</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204795</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366418</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133977</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.132127706541904</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752568</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840011</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415906</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954065</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772528</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490136</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023138</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462363</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046267</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708741</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939809</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307452</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658792</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.194100917942787</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.0918395861865038</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>688.8020111197792</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>121.2219182534622</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204527</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705687</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313409</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655088</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087247</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559201</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091058</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430353</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.0384768797655</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234414</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127579</v>
+        <v>62.90656844127682</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>450.9268494884381</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772537</v>
+        <v>561.9858418867605</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065397009</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>390.9943459318907</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074664</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899239</v>
+        <v>249.5306650804307</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.38121066035</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873377</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.34882675137</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093297</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641544</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254649</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186663</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357676</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228655</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>546.2057666753348</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394707</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683784</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
